--- a/SummaryofResults.xlsx
+++ b/SummaryofResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brown\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449092D5-70AD-47A0-A58A-111E9B72AEC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFDDDB-E61F-494A-A0AA-52A9F38BD2AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{788024B5-DC0A-4F6F-A251-4B3F33DF8ADE}"/>
+    <workbookView xWindow="13608" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{788024B5-DC0A-4F6F-A251-4B3F33DF8ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Y1</t>
   </si>
@@ -352,6 +352,42 @@
   </si>
   <si>
     <t>Outlirers Z,imp bins mean, norm zscore,RFE</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Normalixze minmax,sigmoid function,impute bin mean</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>Normalize and sigmoid continuous only,impute bin mean</t>
+  </si>
+  <si>
+    <t>w_out</t>
+  </si>
+  <si>
+    <t>outlieres median. Normalixze minmax,sigmoid function,impute bin mean</t>
+  </si>
+  <si>
+    <t>w_out1</t>
+  </si>
+  <si>
+    <t>outlieres mean. Normalixze minmax,sigmoid function,impute bin mean</t>
+  </si>
+  <si>
+    <t>w_out_IQR</t>
+  </si>
+  <si>
+    <t>outlieres upper or lower band. Normalixze minmax,sigmoid function,impute bin mean</t>
+  </si>
+  <si>
+    <t>w_out_IQR_cont</t>
+  </si>
+  <si>
+    <t>cont. outlieres upper or lower band. Normalixze minmax,sigmoid function,impute bin mean</t>
   </si>
 </sst>
 </file>
@@ -446,11 +482,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,13 +493,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,16 +819,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O70" sqref="O3:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="2.44140625" style="1" customWidth="1"/>
     <col min="7" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.77734375" customWidth="1"/>
@@ -805,24 +841,24 @@
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="13"/>
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="9"/>
       <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
@@ -976,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -1072,7 +1108,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
@@ -1168,7 +1204,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
@@ -1839,12 +1875,12 @@
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="G38" s="3">
         <v>0.63939999999999997</v>
       </c>
@@ -1874,12 +1910,12 @@
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="G39" s="3">
         <v>0.63939999999999997</v>
       </c>
@@ -2037,12 +2073,12 @@
       <c r="A44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="G44" s="3">
         <v>0.6391</v>
       </c>
@@ -2373,12 +2409,12 @@
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
       <c r="G58" s="3">
         <v>0.67679999999999996</v>
       </c>
@@ -2408,12 +2444,12 @@
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
       <c r="G59" s="3">
         <v>0.66869999999999996</v>
       </c>
@@ -2443,12 +2479,12 @@
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
       <c r="G60" s="3">
         <v>0.68420000000000003</v>
       </c>
@@ -2478,10 +2514,10 @@
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3">
@@ -2507,12 +2543,12 @@
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
       <c r="G62" s="3">
         <v>0.67679999999999996</v>
       </c>
@@ -2538,21 +2574,206 @@
         <v>0.66192499999999999</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" ref="L63:L70" si="3">AVERAGE(G65,I65)</f>
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" ref="M63:M70" si="4">AVERAGE(H65,J65)</f>
+        <v>0.62665000000000004</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" ref="O63:O70" si="5">AVERAGE(L65:M65)</f>
+        <v>0.62697500000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54489999999999994</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="4"/>
+        <v>0.54035</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="5"/>
+        <v>0.54262499999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55235000000000001</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="5"/>
+        <v>0.547875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57695000000000007</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58735000000000004</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="5"/>
+        <v>0.58215000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53125</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="4"/>
+        <v>0.52540000000000009</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="5"/>
+        <v>0.52832500000000004</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L62">
+  <conditionalFormatting sqref="L3:L70">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2564,7 +2785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M62">
+  <conditionalFormatting sqref="M3:M70">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2576,7 +2797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O62">
+  <conditionalFormatting sqref="O3:O70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
